--- a/assets/配置/资源加载配置.xlsx
+++ b/assets/配置/资源加载配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyStudio\TestFrame\assets\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D598D-0C5B-4809-9481-AD28537E28EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF3B39C-09D1-48E1-9D3E-A20BCE68B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1596" windowWidth="16476" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="1932" windowWidth="16476" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ViewLoadRes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>module_5</t>
+  </si>
+  <si>
+    <t>Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -417,7 +421,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,6 +543,12 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
